--- a/data/pa.xlsx
+++ b/data/pa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxc0126\Desktop\polutant\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxc0126\Desktop\polutant-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="456">
   <si>
     <t>PharmacyID</t>
   </si>
@@ -1380,34 +1380,19 @@
     <t>color</t>
   </si>
   <si>
-    <t>#4393c3</t>
-  </si>
-  <si>
-    <t>#d1e5f0</t>
-  </si>
-  <si>
-    <t>#fddbc7</t>
-  </si>
-  <si>
-    <t>#d6604d</t>
-  </si>
-  <si>
-    <t>#b2182b</t>
-  </si>
-  <si>
-    <t>#92c5de</t>
-  </si>
-  <si>
-    <t>#f4a582</t>
-  </si>
-  <si>
-    <t>#67001f</t>
-  </si>
-  <si>
-    <t>#2166ac</t>
-  </si>
-  <si>
-    <t>#053061</t>
+    <t>#1a9850</t>
+  </si>
+  <si>
+    <t>#fee08b</t>
+  </si>
+  <si>
+    <t>#f46d43</t>
+  </si>
+  <si>
+    <t>#a50026</t>
+  </si>
+  <si>
+    <t>#1a1a1a</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1713,7 @@
   <dimension ref="A1:K206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection sqref="A1:H206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,7 +1849,7 @@
         <v>1666.2</v>
       </c>
       <c r="H4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
@@ -1899,7 +1884,7 @@
         <v>857</v>
       </c>
       <c r="H5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -1934,7 +1919,7 @@
         <v>98.2</v>
       </c>
       <c r="H6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -1969,7 +1954,7 @@
         <v>2951.4</v>
       </c>
       <c r="H7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
@@ -2004,7 +1989,7 @@
         <v>1995.2</v>
       </c>
       <c r="H8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
@@ -2039,7 +2024,7 @@
         <v>1057.2</v>
       </c>
       <c r="H9" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -2074,7 +2059,7 @@
         <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
@@ -2109,7 +2094,7 @@
         <v>-939.2</v>
       </c>
       <c r="H11" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -2144,7 +2129,7 @@
         <v>3812.4</v>
       </c>
       <c r="H12" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
@@ -2179,7 +2164,7 @@
         <v>3617.8</v>
       </c>
       <c r="H13" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
@@ -2354,7 +2339,7 @@
         <v>2552.4</v>
       </c>
       <c r="H18" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
@@ -2389,7 +2374,7 @@
         <v>1849.6</v>
       </c>
       <c r="H19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
@@ -2424,7 +2409,7 @@
         <v>1121.5999999999999</v>
       </c>
       <c r="H20" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
@@ -2459,7 +2444,7 @@
         <v>403.4</v>
       </c>
       <c r="H21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I21" t="s">
         <v>19</v>
@@ -2564,7 +2549,7 @@
         <v>1471.6</v>
       </c>
       <c r="H24" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I24" t="s">
         <v>21</v>
@@ -2599,7 +2584,7 @@
         <v>662.4</v>
       </c>
       <c r="H25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
@@ -2634,7 +2619,7 @@
         <v>-170.6</v>
       </c>
       <c r="H26" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I26" t="s">
         <v>21</v>
@@ -2739,7 +2724,7 @@
         <v>1166.4000000000001</v>
       </c>
       <c r="H29" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I29" t="s">
         <v>23</v>
@@ -2774,7 +2759,7 @@
         <v>236.8</v>
       </c>
       <c r="H30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I30" t="s">
         <v>23</v>
@@ -2809,7 +2794,7 @@
         <v>-316.2</v>
       </c>
       <c r="H31" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I31" t="s">
         <v>23</v>
@@ -2914,7 +2899,7 @@
         <v>1345.6</v>
       </c>
       <c r="H34" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I34" t="s">
         <v>25</v>
@@ -2949,7 +2934,7 @@
         <v>494.4</v>
       </c>
       <c r="H35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I35" t="s">
         <v>25</v>
@@ -2984,7 +2969,7 @@
         <v>-372.2</v>
       </c>
       <c r="H36" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I36" t="s">
         <v>25</v>
@@ -3019,7 +3004,7 @@
         <v>3596.8</v>
       </c>
       <c r="H37" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -3159,7 +3144,7 @@
         <v>1936.4</v>
       </c>
       <c r="H41" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -3194,7 +3179,7 @@
         <v>2850.6</v>
       </c>
       <c r="H42" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I42" t="s">
         <v>29</v>
@@ -3229,7 +3214,7 @@
         <v>1704</v>
       </c>
       <c r="H43" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I43" t="s">
         <v>29</v>
@@ -3264,7 +3249,7 @@
         <v>614.79999999999995</v>
       </c>
       <c r="H44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I44" t="s">
         <v>29</v>
@@ -3299,7 +3284,7 @@
         <v>-429.6</v>
       </c>
       <c r="H45" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I45" t="s">
         <v>29</v>
@@ -3334,7 +3319,7 @@
         <v>-1479.6</v>
       </c>
       <c r="H46" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I46" t="s">
         <v>29</v>
@@ -3439,7 +3424,7 @@
         <v>1149.5999999999999</v>
       </c>
       <c r="H49" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I49" t="s">
         <v>31</v>
@@ -3474,7 +3459,7 @@
         <v>217.2</v>
       </c>
       <c r="H50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I50" t="s">
         <v>31</v>
@@ -3509,7 +3494,7 @@
         <v>-699.8</v>
       </c>
       <c r="H51" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I51" t="s">
         <v>31</v>
@@ -3579,7 +3564,7 @@
         <v>2649</v>
       </c>
       <c r="H53" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I53" t="s">
         <v>33</v>
@@ -3649,7 +3634,7 @@
         <v>1380.6</v>
       </c>
       <c r="H55" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I55" t="s">
         <v>33</v>
@@ -3684,7 +3669,7 @@
         <v>778.6</v>
       </c>
       <c r="H56" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I56" t="s">
         <v>33</v>
@@ -3789,7 +3774,7 @@
         <v>1620</v>
       </c>
       <c r="H59" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I59" t="s">
         <v>35</v>
@@ -3824,7 +3809,7 @@
         <v>796.8</v>
       </c>
       <c r="H60" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I60" t="s">
         <v>35</v>
@@ -3859,7 +3844,7 @@
         <v>-1.2</v>
       </c>
       <c r="H61" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I61" t="s">
         <v>35</v>
@@ -3929,7 +3914,7 @@
         <v>2587.4</v>
       </c>
       <c r="H63" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I63" t="s">
         <v>41</v>
@@ -3964,7 +3949,7 @@
         <v>1855.2</v>
       </c>
       <c r="H64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I64" t="s">
         <v>41</v>
@@ -3999,7 +3984,7 @@
         <v>1111.8</v>
       </c>
       <c r="H65" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I65" t="s">
         <v>41</v>
@@ -4034,7 +4019,7 @@
         <v>430</v>
       </c>
       <c r="H66" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I66" t="s">
         <v>41</v>
@@ -4104,7 +4089,7 @@
         <v>2616.8000000000002</v>
       </c>
       <c r="H68" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I68" t="s">
         <v>43</v>
@@ -4139,7 +4124,7 @@
         <v>1922.4</v>
       </c>
       <c r="H69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I69" t="s">
         <v>43</v>
@@ -4174,7 +4159,7 @@
         <v>1223.8</v>
       </c>
       <c r="H70" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I70" t="s">
         <v>43</v>
@@ -4209,7 +4194,7 @@
         <v>536.4</v>
       </c>
       <c r="H71" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I71" t="s">
         <v>43</v>
@@ -4244,7 +4229,7 @@
         <v>2714.8</v>
       </c>
       <c r="H72" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I72" t="s">
         <v>45</v>
@@ -4279,7 +4264,7 @@
         <v>1491.2</v>
       </c>
       <c r="H73" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I73" t="s">
         <v>45</v>
@@ -4314,7 +4299,7 @@
         <v>294.2</v>
       </c>
       <c r="H74" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I74" t="s">
         <v>45</v>
@@ -4349,7 +4334,7 @@
         <v>-939.2</v>
       </c>
       <c r="H75" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I75" t="s">
         <v>45</v>
@@ -4384,7 +4369,7 @@
         <v>-2263.6</v>
       </c>
       <c r="H76" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I76" t="s">
         <v>45</v>
@@ -4489,7 +4474,7 @@
         <v>1628.4</v>
       </c>
       <c r="H79" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I79" t="s">
         <v>47</v>
@@ -4524,7 +4509,7 @@
         <v>848.6</v>
       </c>
       <c r="H80" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I80" t="s">
         <v>47</v>
@@ -4559,7 +4544,7 @@
         <v>42.2</v>
       </c>
       <c r="H81" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I81" t="s">
         <v>47</v>
@@ -4594,7 +4579,7 @@
         <v>2860.4</v>
       </c>
       <c r="H82" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I82" t="s">
         <v>49</v>
@@ -4629,7 +4614,7 @@
         <v>1653.6</v>
       </c>
       <c r="H83" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I83" t="s">
         <v>49</v>
@@ -4664,7 +4649,7 @@
         <v>526.6</v>
       </c>
       <c r="H84" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I84" t="s">
         <v>49</v>
@@ -4699,7 +4684,7 @@
         <v>-607.4</v>
       </c>
       <c r="H85" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I85" t="s">
         <v>49</v>
@@ -4734,7 +4719,7 @@
         <v>-1758.2</v>
       </c>
       <c r="H86" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I86" t="s">
         <v>49</v>
@@ -4769,7 +4754,7 @@
         <v>2752.6</v>
       </c>
       <c r="H87" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I87" t="s">
         <v>51</v>
@@ -4804,7 +4789,7 @@
         <v>1485.6</v>
       </c>
       <c r="H88" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I88" t="s">
         <v>51</v>
@@ -4839,7 +4824,7 @@
         <v>200.4</v>
       </c>
       <c r="H89" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I89" t="s">
         <v>51</v>
@@ -4874,7 +4859,7 @@
         <v>-1055.4000000000001</v>
       </c>
       <c r="H90" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I90" t="s">
         <v>51</v>
@@ -4909,7 +4894,7 @@
         <v>-2349</v>
       </c>
       <c r="H91" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I91" t="s">
         <v>51</v>
@@ -4944,7 +4929,7 @@
         <v>2912.2</v>
       </c>
       <c r="H92" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I92" t="s">
         <v>53</v>
@@ -4979,7 +4964,7 @@
         <v>1867.8</v>
       </c>
       <c r="H93" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I93" t="s">
         <v>53</v>
@@ -5014,7 +4999,7 @@
         <v>752</v>
       </c>
       <c r="H94" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I94" t="s">
         <v>53</v>
@@ -5049,7 +5034,7 @@
         <v>-296.60000000000002</v>
       </c>
       <c r="H95" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I95" t="s">
         <v>53</v>
@@ -5084,7 +5069,7 @@
         <v>-1318.6</v>
       </c>
       <c r="H96" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I96" t="s">
         <v>53</v>
@@ -5189,7 +5174,7 @@
         <v>1340</v>
       </c>
       <c r="H99" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I99" t="s">
         <v>55</v>
@@ -5224,7 +5209,7 @@
         <v>430</v>
       </c>
       <c r="H100" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I100" t="s">
         <v>55</v>
@@ -5259,7 +5244,7 @@
         <v>-502.4</v>
       </c>
       <c r="H101" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I101" t="s">
         <v>55</v>
@@ -5294,7 +5279,7 @@
         <v>2887</v>
       </c>
       <c r="H102" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I102" t="s">
         <v>57</v>
@@ -5329,7 +5314,7 @@
         <v>1876.2</v>
       </c>
       <c r="H103" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I103" t="s">
         <v>57</v>
@@ -5364,7 +5349,7 @@
         <v>865.4</v>
       </c>
       <c r="H104" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I104" t="s">
         <v>57</v>
@@ -5399,7 +5384,7 @@
         <v>-166.4</v>
       </c>
       <c r="H105" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I105" t="s">
         <v>57</v>
@@ -5434,7 +5419,7 @@
         <v>-1178.5999999999999</v>
       </c>
       <c r="H106" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I106" t="s">
         <v>57</v>
@@ -5469,7 +5454,7 @@
         <v>2775</v>
       </c>
       <c r="H107" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I107" t="s">
         <v>59</v>
@@ -5504,7 +5489,7 @@
         <v>1555.6</v>
       </c>
       <c r="H108" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I108" t="s">
         <v>59</v>
@@ -5539,7 +5524,7 @@
         <v>315.2</v>
       </c>
       <c r="H109" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I109" t="s">
         <v>59</v>
@@ -5574,7 +5559,7 @@
         <v>-949</v>
       </c>
       <c r="H110" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I110" t="s">
         <v>59</v>
@@ -5609,7 +5594,7 @@
         <v>-2203.4</v>
       </c>
       <c r="H111" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I111" t="s">
         <v>59</v>
@@ -5644,7 +5629,7 @@
         <v>3878.2</v>
       </c>
       <c r="H112" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="I112" t="s">
         <v>61</v>
@@ -5679,7 +5664,7 @@
         <v>3711.6</v>
       </c>
       <c r="H113" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="I113" t="s">
         <v>61</v>
@@ -5714,7 +5699,7 @@
         <v>3581.4</v>
       </c>
       <c r="H114" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="I114" t="s">
         <v>61</v>
@@ -5889,7 +5874,7 @@
         <v>1779.6</v>
       </c>
       <c r="H119" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I119" t="s">
         <v>63</v>
@@ -5924,7 +5909,7 @@
         <v>973.2</v>
       </c>
       <c r="H120" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I120" t="s">
         <v>63</v>
@@ -5959,7 +5944,7 @@
         <v>-20.8</v>
       </c>
       <c r="H121" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I121" t="s">
         <v>63</v>
@@ -6029,7 +6014,7 @@
         <v>2671.4</v>
       </c>
       <c r="H123" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I123" t="s">
         <v>65</v>
@@ -6099,7 +6084,7 @@
         <v>1351.2</v>
       </c>
       <c r="H125" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I125" t="s">
         <v>65</v>
@@ -6134,7 +6119,7 @@
         <v>711.4</v>
       </c>
       <c r="H126" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I126" t="s">
         <v>65</v>
@@ -6169,7 +6154,7 @@
         <v>2566.4</v>
       </c>
       <c r="H127" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I127" t="s">
         <v>67</v>
@@ -6204,7 +6189,7 @@
         <v>1103.4000000000001</v>
       </c>
       <c r="H128" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I128" t="s">
         <v>67</v>
@@ -6239,7 +6224,7 @@
         <v>-270</v>
       </c>
       <c r="H129" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I129" t="s">
         <v>67</v>
@@ -6274,7 +6259,7 @@
         <v>-1706.4</v>
       </c>
       <c r="H130" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I130" t="s">
         <v>67</v>
@@ -6309,7 +6294,7 @@
         <v>-3161</v>
       </c>
       <c r="H131" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I131" t="s">
         <v>67</v>
@@ -6379,7 +6364,7 @@
         <v>2733</v>
       </c>
       <c r="H133" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I133" t="s">
         <v>69</v>
@@ -6449,7 +6434,7 @@
         <v>1414.2</v>
       </c>
       <c r="H135" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I135" t="s">
         <v>69</v>
@@ -6484,7 +6469,7 @@
         <v>738</v>
       </c>
       <c r="H136" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I136" t="s">
         <v>69</v>
@@ -6589,7 +6574,7 @@
         <v>1128.5999999999999</v>
       </c>
       <c r="H139" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I139" t="s">
         <v>71</v>
@@ -6624,7 +6609,7 @@
         <v>157</v>
       </c>
       <c r="H140" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I140" t="s">
         <v>71</v>
@@ -6659,7 +6644,7 @@
         <v>-810.4</v>
       </c>
       <c r="H141" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I141" t="s">
         <v>71</v>
@@ -6694,7 +6679,7 @@
         <v>2832.4</v>
       </c>
       <c r="H142" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I142" t="s">
         <v>73</v>
@@ -6729,7 +6714,7 @@
         <v>1632.6</v>
       </c>
       <c r="H143" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I143" t="s">
         <v>73</v>
@@ -6764,7 +6749,7 @@
         <v>549</v>
       </c>
       <c r="H144" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I144" t="s">
         <v>73</v>
@@ -6799,7 +6784,7 @@
         <v>-730.6</v>
       </c>
       <c r="H145" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I145" t="s">
         <v>73</v>
@@ -6834,7 +6819,7 @@
         <v>-1852</v>
       </c>
       <c r="H146" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I146" t="s">
         <v>73</v>
@@ -6904,7 +6889,7 @@
         <v>2530</v>
       </c>
       <c r="H148" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I148" t="s">
         <v>75</v>
@@ -6939,7 +6924,7 @@
         <v>1678.8</v>
       </c>
       <c r="H149" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I149" t="s">
         <v>75</v>
@@ -6974,7 +6959,7 @@
         <v>927</v>
       </c>
       <c r="H150" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I150" t="s">
         <v>75</v>
@@ -7009,7 +6994,7 @@
         <v>165.4</v>
       </c>
       <c r="H151" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I151" t="s">
         <v>75</v>
@@ -7044,7 +7029,7 @@
         <v>2969.6</v>
       </c>
       <c r="H152" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I152" t="s">
         <v>77</v>
@@ -7079,7 +7064,7 @@
         <v>1964.4</v>
       </c>
       <c r="H153" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I153" t="s">
         <v>77</v>
@@ -7114,7 +7099,7 @@
         <v>950.8</v>
       </c>
       <c r="H154" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I154" t="s">
         <v>77</v>
@@ -7149,7 +7134,7 @@
         <v>-27.8</v>
       </c>
       <c r="H155" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I155" t="s">
         <v>77</v>
@@ -7184,7 +7169,7 @@
         <v>-1023.2</v>
       </c>
       <c r="H156" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I156" t="s">
         <v>77</v>
@@ -7219,7 +7204,7 @@
         <v>2898.2</v>
       </c>
       <c r="H157" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I157" t="s">
         <v>79</v>
@@ -7254,7 +7239,7 @@
         <v>1795</v>
       </c>
       <c r="H158" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I158" t="s">
         <v>79</v>
@@ -7289,7 +7274,7 @@
         <v>750.6</v>
       </c>
       <c r="H159" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I159" t="s">
         <v>79</v>
@@ -7324,7 +7309,7 @@
         <v>-338.6</v>
       </c>
       <c r="H160" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I160" t="s">
         <v>79</v>
@@ -7359,7 +7344,7 @@
         <v>-1411</v>
       </c>
       <c r="H161" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I161" t="s">
         <v>79</v>
@@ -7394,7 +7379,7 @@
         <v>3988.8</v>
       </c>
       <c r="H162" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="I162" t="s">
         <v>81</v>
@@ -7429,7 +7414,7 @@
         <v>3977.6</v>
       </c>
       <c r="H163" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="I163" t="s">
         <v>81</v>
@@ -7464,7 +7449,7 @@
         <v>3960.8</v>
       </c>
       <c r="H164" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="I164" t="s">
         <v>81</v>
@@ -7499,7 +7484,7 @@
         <v>3930</v>
       </c>
       <c r="H165" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="I165" t="s">
         <v>81</v>
@@ -7534,7 +7519,7 @@
         <v>3889.4</v>
       </c>
       <c r="H166" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="I166" t="s">
         <v>81</v>
@@ -7569,7 +7554,7 @@
         <v>3991.6</v>
       </c>
       <c r="H167" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="I167" t="s">
         <v>83</v>
@@ -7604,7 +7589,7 @@
         <v>3984.6</v>
       </c>
       <c r="H168" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="I168" t="s">
         <v>83</v>
@@ -7639,7 +7624,7 @@
         <v>3966.4</v>
       </c>
       <c r="H169" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="I169" t="s">
         <v>83</v>
@@ -7674,7 +7659,7 @@
         <v>3963.6</v>
       </c>
       <c r="H170" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="I170" t="s">
         <v>83</v>
@@ -7709,7 +7694,7 @@
         <v>3958</v>
       </c>
       <c r="H171" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="I171" t="s">
         <v>83</v>
@@ -7744,7 +7729,7 @@
         <v>2826.8</v>
       </c>
       <c r="H172" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I172" t="s">
         <v>85</v>
@@ -7779,7 +7764,7 @@
         <v>1544.4</v>
       </c>
       <c r="H173" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I173" t="s">
         <v>85</v>
@@ -7814,7 +7799,7 @@
         <v>374</v>
       </c>
       <c r="H174" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I174" t="s">
         <v>85</v>
@@ -7849,7 +7834,7 @@
         <v>-954.6</v>
       </c>
       <c r="H175" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I175" t="s">
         <v>85</v>
@@ -7884,7 +7869,7 @@
         <v>-2126.4</v>
       </c>
       <c r="H176" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I176" t="s">
         <v>85</v>
@@ -7919,7 +7904,7 @@
         <v>3536.6</v>
       </c>
       <c r="H177" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="I177" t="s">
         <v>87</v>
@@ -7989,7 +7974,7 @@
         <v>2629.4</v>
       </c>
       <c r="H179" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I179" t="s">
         <v>87</v>
@@ -8059,7 +8044,7 @@
         <v>1720.8</v>
       </c>
       <c r="H181" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I181" t="s">
         <v>87</v>
@@ -8094,7 +8079,7 @@
         <v>2952.8</v>
       </c>
       <c r="H182" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I182" t="s">
         <v>88</v>
@@ -8129,7 +8114,7 @@
         <v>1901.4</v>
       </c>
       <c r="H183" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I183" t="s">
         <v>88</v>
@@ -8164,7 +8149,7 @@
         <v>805.2</v>
       </c>
       <c r="H184" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I184" t="s">
         <v>88</v>
@@ -8199,7 +8184,7 @@
         <v>-258.8</v>
       </c>
       <c r="H185" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I185" t="s">
         <v>88</v>
@@ -8234,7 +8219,7 @@
         <v>-1331.2</v>
       </c>
       <c r="H186" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I186" t="s">
         <v>88</v>
@@ -8304,7 +8289,7 @@
         <v>2826.8</v>
       </c>
       <c r="H188" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I188" t="s">
         <v>90</v>
@@ -8374,7 +8359,7 @@
         <v>1636.8</v>
       </c>
       <c r="H190" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I190" t="s">
         <v>90</v>
@@ -8409,7 +8394,7 @@
         <v>1027.8</v>
       </c>
       <c r="H191" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I191" t="s">
         <v>90</v>
@@ -8444,7 +8429,7 @@
         <v>2902.4</v>
       </c>
       <c r="H192" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I192" t="s">
         <v>92</v>
@@ -8479,7 +8464,7 @@
         <v>1799.2</v>
       </c>
       <c r="H193" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I193" t="s">
         <v>92</v>
@@ -8514,7 +8499,7 @@
         <v>724</v>
       </c>
       <c r="H194" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I194" t="s">
         <v>92</v>
@@ -8549,7 +8534,7 @@
         <v>-383.4</v>
       </c>
       <c r="H195" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I195" t="s">
         <v>92</v>
@@ -8584,7 +8569,7 @@
         <v>-1462.8</v>
       </c>
       <c r="H196" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I196" t="s">
         <v>92</v>
@@ -8654,7 +8639,7 @@
         <v>2644.8</v>
       </c>
       <c r="H198" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I198" t="s">
         <v>94</v>
@@ -8689,7 +8674,7 @@
         <v>1558.4</v>
       </c>
       <c r="H199" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I199" t="s">
         <v>94</v>
@@ -8724,7 +8709,7 @@
         <v>948</v>
       </c>
       <c r="H200" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I200" t="s">
         <v>94</v>
@@ -8759,7 +8744,7 @@
         <v>102.4</v>
       </c>
       <c r="H201" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I201" t="s">
         <v>94</v>
@@ -8794,7 +8779,7 @@
         <v>3601</v>
       </c>
       <c r="H202" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="I202" t="s">
         <v>96</v>
@@ -8864,7 +8849,7 @@
         <v>2780.6</v>
       </c>
       <c r="H204" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I204" t="s">
         <v>96</v>
@@ -8934,7 +8919,7 @@
         <v>1953.2</v>
       </c>
       <c r="H206" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I206" t="s">
         <v>96</v>
